--- a/TP4.2/Classeur2.xlsx
+++ b/TP4.2/Classeur2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\33783\Desktop\ECOLE\POLYTECH\ME\Semestre 6\TPS\TP4.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\33783\Desktop\ECOLE\POLYTECH\ME\Semestre 6\TPS\TP4.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58C2EA6B-49EF-4A83-BFA6-A601C881FDFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A41EC7B-0A73-4721-8A65-3762FBDBB2E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6F82D56D-1664-4492-ADC8-BCF0F984F471}"/>
   </bookViews>
@@ -264,6 +264,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -273,7 +274,7 @@
                   <c:y val="-4.432493535350595E-2"/>
                 </c:manualLayout>
               </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:numFmt formatCode="0.00000E+00" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -415,6 +416,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -566,16 +568,17 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.1548724641464016"/>
-                  <c:y val="1.1930370995677297E-2"/>
+                  <c:x val="0.12040559870593426"/>
+                  <c:y val="1.2923735470704353E-2"/>
                 </c:manualLayout>
               </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:numFmt formatCode="0.00000E+00" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -717,13 +720,14 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.2438769739417935E-2"/>
-                  <c:y val="-3.1464770692942498E-2"/>
+                  <c:x val="-6.2107134740585268E-2"/>
+                  <c:y val="-3.2377585862865585E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="0.00000E+00" sourceLinked="0"/>
@@ -755,20 +759,6 @@
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -2234,15 +2224,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA650BF-97FC-4E13-9FDA-C83D14C61216}">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" topLeftCell="D8" zoomScale="97" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -2621,7 +2620,7 @@
         <v>8428892481</v>
       </c>
       <c r="F13">
-        <f t="shared" ref="D13:O13" si="0">(F3+273)^(4)</f>
+        <f t="shared" ref="F13:O13" si="0">(F3+273)^(4)</f>
         <v>8428892481</v>
       </c>
       <c r="I13">
@@ -2639,7 +2638,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C14">
-        <f t="shared" ref="C14:O22" si="1">(C4+273)^(4)</f>
+        <f t="shared" ref="C14:O20" si="1">(C4+273)^(4)</f>
         <v>9597924961</v>
       </c>
       <c r="F14">
